--- a/construction_analysis/results/feature_dep.xlsx
+++ b/construction_analysis/results/feature_dep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masakieguchi/Dropbox/0_Projects/0_basenlp/SFLAnalyzer/engagement-annotation-project/construction_analysis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC924B8-5727-D949-8757-BE782F7FA425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD43AC7-FFFA-AD45-AAB0-5F16811174E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1680" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="760" windowWidth="29420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_dep" sheetId="1" r:id="rId1"/>
